--- a/biology/Botanique/Jardin_Carré/Jardin_Carré.xlsx
+++ b/biology/Botanique/Jardin_Carré/Jardin_Carré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_Carr%C3%A9</t>
+          <t>Jardin_Carré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Carré est un espace vert  du 5e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_Carr%C3%A9</t>
+          <t>Jardin_Carré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé rue Descartes dans le quartier Saint-Victor.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_Carr%C3%A9</t>
+          <t>Jardin_Carré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1979 commencent les travaux de restructuration des bâtiments de l'École polytechnique qui n'occupe plus ses locaux historiques. C'est l'architecte Denis Sloan qui mène le projet dont le site est confié à l'institut Auguste-Comte. Depuis 1981, c'est le ministère de l'Enseignement supérieur et de la Recherche qui occupe désormais l'essentiel du site dont les cours sont transformées en jardins.
-Le jardin Carré est créé en 1991 entre les 11-19, rue Descartes, sur une surface de 9 083 m2 avec un bassin central et quelques sculptures. Il n'est ouvert que durant le week-end (pour des raisons de sécurité, le jardin est fermé pour une durée indéterminée à compter de novembre 2015[Passage à actualiser][1]).
+Le jardin Carré est créé en 1991 entre les 11-19, rue Descartes, sur une surface de 9 083 m2 avec un bassin central et quelques sculptures. Il n'est ouvert que durant le week-end (pour des raisons de sécurité, le jardin est fermé pour une durée indéterminée à compter de novembre 2015[Passage à actualiser]).
 			La pavillon Joffre à l'est du jardin.
 </t>
         </is>
